--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRANSPARENCIA UPP\SIPOT 3ER TRI 23\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13C967-4ABE-4313-9E0B-0B1D727A3165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2E727-EF3D-4107-9BA7-F9F844885F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>45736</t>
   </si>
@@ -154,17 +154,56 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>En este periodo no se llevó a cabo el levantamiento de estadísticas generadas.</t>
-  </si>
-  <si>
-    <t>Departamento de Evaluación y Estadistícas (UPP)</t>
+    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
+  </si>
+  <si>
+    <t>Estadística  septiembre-diciembre 2023</t>
+  </si>
+  <si>
+    <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
+  </si>
+  <si>
+    <t>Estadística de Educación Superior</t>
+  </si>
+  <si>
+    <t>Estadística 911</t>
+  </si>
+  <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020#gsc.tab=0</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estad%c3%adstica%20911/Base%20de%20Datos/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20Basica/septiembre-diciembre/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upp.edu.mx/bancodedatosestadisticos/ </t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadística (UPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/30/Columna%20G.xlsx </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,11 +216,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,39 +275,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -275,9 +327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +343,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -303,7 +355,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -315,7 +367,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,6 +402,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -385,9 +454,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,18 +634,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.42578125" customWidth="1"/>
+    <col min="8" max="8" width="120.42578125" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="101.85546875" customWidth="1"/>
+    <col min="11" max="11" width="111.7109375" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -567,230 +653,289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="4">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45209</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="L8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="N8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45210</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="N8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45301</v>
+      </c>
+      <c r="N9" s="4">
+        <v>45301</v>
+      </c>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -802,6 +947,16 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" location="gsc.tab=0" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>